--- a/excel2mysql/excels/activity.xlsx
+++ b/excel2mysql/excels/activity.xlsx
@@ -19,29 +19,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>int(11)|PRI|</t>
+  </si>
+  <si>
     <t>活动id。 和程序保持一致</t>
   </si>
   <si>
     <t>description</t>
   </si>
   <si>
+    <t>varchar(255)||</t>
+  </si>
+  <si>
     <t>活动描述</t>
   </si>
   <si>
     <t>draw_times</t>
   </si>
   <si>
+    <t>bigint(11)||</t>
+  </si>
+  <si>
     <t>活动可以领取的次数</t>
   </si>
   <si>
     <t>draw_type</t>
   </si>
   <si>
+    <t>int(11)||</t>
+  </si>
+  <si>
     <t xml:space="preserve">领取类型，1是永久，2是每日领取，3是每周领取 </t>
   </si>
   <si>
@@ -58,6 +70,9 @@
   </si>
   <si>
     <t>game_id</t>
+  </si>
+  <si>
+    <t>varchar(100)||</t>
   </si>
   <si>
     <t>游戏ID</t>
@@ -408,7 +423,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -419,22 +434,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -442,50 +457,53 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -494,7 +512,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -502,19 +520,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -522,10 +540,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -542,10 +560,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -562,21 +580,41 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>30</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
         <v>66</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>1</v>
       </c>
     </row>
